--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4416700000000001</v>
+        <v>0.44167</v>
       </c>
       <c r="H2">
         <v>1.32501</v>
       </c>
       <c r="I2">
-        <v>0.4008251187492173</v>
+        <v>0.310972067878236</v>
       </c>
       <c r="J2">
-        <v>0.4008251187492173</v>
+        <v>0.310972067878236</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.965644666666666</v>
+        <v>4.524359666666666</v>
       </c>
       <c r="N2">
-        <v>8.896934</v>
+        <v>13.573079</v>
       </c>
       <c r="O2">
-        <v>0.8120404856799336</v>
+        <v>0.9473211410445694</v>
       </c>
       <c r="P2">
-        <v>0.8120404856799336</v>
+        <v>0.9473211410445695</v>
       </c>
       <c r="Q2">
-        <v>1.309836279926667</v>
+        <v>1.998273933976667</v>
       </c>
       <c r="R2">
-        <v>11.78852651934</v>
+        <v>17.98446540579</v>
       </c>
       <c r="S2">
-        <v>0.3254862241018315</v>
+        <v>0.2945904141753998</v>
       </c>
       <c r="T2">
-        <v>0.3254862241018315</v>
+        <v>0.2945904141753999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4416700000000001</v>
+        <v>0.44167</v>
       </c>
       <c r="H3">
         <v>1.32501</v>
       </c>
       <c r="I3">
-        <v>0.4008251187492173</v>
+        <v>0.310972067878236</v>
       </c>
       <c r="J3">
-        <v>0.4008251187492173</v>
+        <v>0.310972067878236</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.686445</v>
+        <v>0.2515916666666667</v>
       </c>
       <c r="N3">
-        <v>2.059335</v>
+        <v>0.754775</v>
       </c>
       <c r="O3">
-        <v>0.1879595143200664</v>
+        <v>0.05267885895543045</v>
       </c>
       <c r="P3">
-        <v>0.1879595143200664</v>
+        <v>0.05267885895543045</v>
       </c>
       <c r="Q3">
-        <v>0.30318216315</v>
+        <v>0.1111204914166667</v>
       </c>
       <c r="R3">
-        <v>2.72863946835</v>
+        <v>1.00008442275</v>
       </c>
       <c r="S3">
-        <v>0.07533889464738584</v>
+        <v>0.01638165370283614</v>
       </c>
       <c r="T3">
-        <v>0.07533889464738584</v>
+        <v>0.01638165370283614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6254763333333333</v>
+        <v>0.8967930000000001</v>
       </c>
       <c r="H4">
-        <v>1.876429</v>
+        <v>2.690379</v>
       </c>
       <c r="I4">
-        <v>0.567633358804443</v>
+        <v>0.6314161561091469</v>
       </c>
       <c r="J4">
-        <v>0.5676333588044429</v>
+        <v>0.6314161561091469</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.965644666666666</v>
+        <v>4.524359666666666</v>
       </c>
       <c r="N4">
-        <v>8.896934</v>
+        <v>13.573079</v>
       </c>
       <c r="O4">
-        <v>0.8120404856799336</v>
+        <v>0.9473211410445694</v>
       </c>
       <c r="P4">
-        <v>0.8120404856799336</v>
+        <v>0.9473211410445695</v>
       </c>
       <c r="Q4">
-        <v>1.854940552076222</v>
+        <v>4.057414078549</v>
       </c>
       <c r="R4">
-        <v>16.694464968686</v>
+        <v>36.516726706941</v>
       </c>
       <c r="S4">
-        <v>0.4609412683716919</v>
+        <v>0.5981538734792931</v>
       </c>
       <c r="T4">
-        <v>0.4609412683716918</v>
+        <v>0.5981538734792932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6254763333333333</v>
+        <v>0.8967930000000001</v>
       </c>
       <c r="H5">
-        <v>1.876429</v>
+        <v>2.690379</v>
       </c>
       <c r="I5">
-        <v>0.567633358804443</v>
+        <v>0.6314161561091469</v>
       </c>
       <c r="J5">
-        <v>0.5676333588044429</v>
+        <v>0.6314161561091469</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.686445</v>
+        <v>0.2515916666666667</v>
       </c>
       <c r="N5">
-        <v>2.059335</v>
+        <v>0.754775</v>
       </c>
       <c r="O5">
-        <v>0.1879595143200664</v>
+        <v>0.05267885895543045</v>
       </c>
       <c r="P5">
-        <v>0.1879595143200664</v>
+        <v>0.05267885895543045</v>
       </c>
       <c r="Q5">
-        <v>0.429355101635</v>
+        <v>0.225625645525</v>
       </c>
       <c r="R5">
-        <v>3.864195914715</v>
+        <v>2.030630809725</v>
       </c>
       <c r="S5">
-        <v>0.1066920904327511</v>
+        <v>0.03326228262985381</v>
       </c>
       <c r="T5">
-        <v>0.1066920904327511</v>
+        <v>0.03326228262985381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03475566666666667</v>
+        <v>0.08182533333333333</v>
       </c>
       <c r="H6">
-        <v>0.104267</v>
+        <v>0.245476</v>
       </c>
       <c r="I6">
-        <v>0.03154152244633976</v>
+        <v>0.05761177601261715</v>
       </c>
       <c r="J6">
-        <v>0.03154152244633975</v>
+        <v>0.05761177601261716</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.965644666666666</v>
+        <v>4.524359666666666</v>
       </c>
       <c r="N6">
-        <v>8.896934</v>
+        <v>13.573079</v>
       </c>
       <c r="O6">
-        <v>0.8120404856799336</v>
+        <v>0.9473211410445694</v>
       </c>
       <c r="P6">
-        <v>0.8120404856799336</v>
+        <v>0.9473211410445695</v>
       </c>
       <c r="Q6">
-        <v>0.1030729574864444</v>
+        <v>0.3702072378448888</v>
       </c>
       <c r="R6">
-        <v>0.9276566173780001</v>
+        <v>3.331865140604</v>
       </c>
       <c r="S6">
-        <v>0.02561299320641026</v>
+        <v>0.05457685338987664</v>
       </c>
       <c r="T6">
-        <v>0.02561299320641026</v>
+        <v>0.05457685338987665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03475566666666667</v>
+        <v>0.08182533333333333</v>
       </c>
       <c r="H7">
-        <v>0.104267</v>
+        <v>0.245476</v>
       </c>
       <c r="I7">
-        <v>0.03154152244633976</v>
+        <v>0.05761177601261715</v>
       </c>
       <c r="J7">
-        <v>0.03154152244633975</v>
+        <v>0.05761177601261716</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.686445</v>
+        <v>0.2515916666666667</v>
       </c>
       <c r="N7">
-        <v>2.059335</v>
+        <v>0.754775</v>
       </c>
       <c r="O7">
-        <v>0.1879595143200664</v>
+        <v>0.05267885895543045</v>
       </c>
       <c r="P7">
-        <v>0.1879595143200664</v>
+        <v>0.05267885895543045</v>
       </c>
       <c r="Q7">
-        <v>0.023857853605</v>
+        <v>0.02058657198888889</v>
       </c>
       <c r="R7">
-        <v>0.214720682445</v>
+        <v>0.1852791479</v>
       </c>
       <c r="S7">
-        <v>0.005928529239929495</v>
+        <v>0.00303492262274051</v>
       </c>
       <c r="T7">
-        <v>0.005928529239929494</v>
+        <v>0.00303492262274051</v>
       </c>
     </row>
   </sheetData>
